--- a/метки.xlsx
+++ b/метки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\жсон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\auto-get-audio-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E0E7C-2C84-45E9-A91C-BDFD6407BB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BD8D65-CDBB-4A8D-91F1-0F1FF104607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00BA540E-EA3A-4AAA-95EC-18AA6474DFA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>client_name</t>
   </si>
@@ -163,6 +163,105 @@
   </si>
   <si>
     <t>end, ms</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>Здравствуйте, Иван Это компания Мвидео. Мы проверяем качество обслуживания в магазине и этот телефон, указан, как контактный, может быть Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
+  </si>
+  <si>
+    <t>Здравствуйте, Вам звонили из компании Мвидео. К сожалению нам не удалось до Вас дозвониться. При необходимости наш сотрудник свяжется с Вами повторно. Спасибо, что перезвонили</t>
+  </si>
+  <si>
+    <t>Здравствуйте, Иван</t>
+  </si>
+  <si>
+    <t>Здравствуйте</t>
+  </si>
+  <si>
+    <t>Это компания Мвидео. Мы проверяем качество обслуживания в магазине. Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
+  </si>
+  <si>
+    <t>Это компания Мвидео. Мы проверяем качество обслуживания в магазине и этот телефон указан, как контактный, может быть, Вы сможете ответить на несколько вопросов? Это займёт менее минуты.</t>
+  </si>
+  <si>
+    <t>Спасибо! 1 января 2011 года Вы приобрели в магазине Мвидео утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать М.Видео, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
+  </si>
+  <si>
+    <t>Пожалуйста, назовите оценку от 0 до 10, где 10 означает «Точно посоветую», а 0- «Точно не посоветую».</t>
+  </si>
+  <si>
+    <t>Почему вы поставили такие оценки, пожалуйста, расскажите сначала, что вам понравилось?</t>
+  </si>
+  <si>
+    <t>А теперь поясните, что вам не понравилось?</t>
+  </si>
+  <si>
+    <t>Спасибо за участие в опросе. Всего доброго, хорошего Вам дня!</t>
+  </si>
+  <si>
+    <t>К сожалению, я не могу перевести вас сейчас на оператора. Он свяжется с вами позже.</t>
+  </si>
+  <si>
+    <t>Извините за беспокойство, мы больше не будем Вам звонить. Всего доброго до свидания.</t>
+  </si>
+  <si>
+    <t>Да, я робот и я понимаю Вас.</t>
+  </si>
+  <si>
+    <t>Говорите, я Вас слушаю.</t>
+  </si>
+  <si>
+    <t>Нам важно знать именно Ваше мнение. Поставьте, пожалуйста нам оценку.</t>
+  </si>
+  <si>
+    <t>Мы работаем над улучшением качества обслуживания в магазинах. Ваши ответы помогут нам стать лучше для Вас.</t>
+  </si>
+  <si>
+    <t>Вы совершили покупку с использованием бонусной карты в магазине М.видео. И этот номер указан как контактный.</t>
+  </si>
+  <si>
+    <t>Не переживайте. Гарантию Вы сможете получить по чеку. Если необходима печать, обратитесь в магазин к любому сотруднику, для проставления печати. Возьмите с собой чек и гарантийный талон</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Это компания М.видео, пожалуйста, ответьте на несколько вопросов.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Это компания М.видео, пожалуйста, ответьте на несколько вопросов.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Это компания М.видео, Вам удобно говорить?</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. 1 января 2011 года Вы приобрели в магазине Мвидео утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать М.Видео, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Пожалуйста, назовите оценку от 0 до 10, где 10 означает «Точно посоветую», а 0- «Точно не посоветую».</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Пожалуйста, назовите оценку от 0 до 10.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Пожалуйста, оцените, насколько вы удовлетворены тем, как прошла ваша покупка в М.Видео в целом? для оценки назовите цифру от 1 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Пожалуйста, назовите цифру от 1 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Назовите оценку от 1 до 5.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Поясните, пожалуйста, подробнее, почему вы поставили такие оценки, пожалуйста, расскажите сначала, что вам понравилось?</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Поясните, что вам не понравилось?</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Если вы консультировались у продавца, оцените, пожалуйста, его работу от 1 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Пожалуйста, назовите цифру от 1 до 5, где 5- «очень понравилось», а 1- «совершенно не понравилось».</t>
   </si>
 </sst>
 </file>
@@ -516,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24666397-9398-4206-97A6-0D50AF8E7686}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,9 +626,10 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="74.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -539,8 +639,11 @@
       <c r="C1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>28.235465000000001</v>
       </c>
@@ -551,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>86.185464999999994</v>
       </c>
@@ -562,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>104.87546500000001</v>
       </c>
@@ -572,8 +675,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>105.482941</v>
       </c>
@@ -584,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>107.046667</v>
       </c>
@@ -595,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>120.01546500000001</v>
       </c>
@@ -605,8 +711,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>122.421406</v>
       </c>
@@ -617,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>132.96546499999999</v>
       </c>
@@ -627,8 +736,11 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>133.54518100000001</v>
       </c>
@@ -639,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>136.205465</v>
       </c>
@@ -649,8 +761,11 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>139.13546500000001</v>
       </c>
@@ -660,8 +775,11 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>139.93492499999999</v>
       </c>
@@ -672,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>149.175465</v>
       </c>
@@ -682,8 +800,11 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>149.98334500000001</v>
       </c>
@@ -694,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>161.16546500000001</v>
       </c>
@@ -704,8 +825,11 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>162.26602600000001</v>
       </c>
@@ -716,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>166.291504</v>
       </c>
@@ -727,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>167.39157599999999</v>
       </c>
@@ -738,7 +862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>170.874616</v>
       </c>
@@ -749,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>185.26546500000001</v>
       </c>
@@ -759,8 +883,11 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>195.91546500000001</v>
       </c>
@@ -770,8 +897,11 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>203.75546499999999</v>
       </c>
@@ -781,8 +911,11 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>208.03546499999999</v>
       </c>
@@ -792,8 +925,11 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>214.78546499999999</v>
       </c>
@@ -803,8 +939,11 @@
       <c r="C25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>222.09546499999999</v>
       </c>
@@ -814,8 +953,11 @@
       <c r="C26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>228.53546499999999</v>
       </c>
@@ -825,8 +967,11 @@
       <c r="C27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>233.85546500000001</v>
       </c>
@@ -836,8 +981,11 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>238.025465</v>
       </c>
@@ -847,8 +995,11 @@
       <c r="C29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>244.60546500000001</v>
       </c>
@@ -858,8 +1009,11 @@
       <c r="C30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>264.775465</v>
       </c>
@@ -869,8 +1023,11 @@
       <c r="C31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>268.38110699999999</v>
       </c>
@@ -881,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>288.29546499999998</v>
       </c>
@@ -891,8 +1048,11 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>301.47546499999999</v>
       </c>
@@ -902,8 +1062,11 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>304.261235</v>
       </c>
@@ -914,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>308.97546499999999</v>
       </c>
@@ -924,8 +1087,11 @@
       <c r="C36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>311.681712</v>
       </c>
@@ -936,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>316.62546500000002</v>
       </c>
@@ -946,8 +1112,11 @@
       <c r="C38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>319.32751200000001</v>
       </c>
@@ -958,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>323.25546500000002</v>
       </c>
@@ -968,8 +1137,11 @@
       <c r="C40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>325.24860200000001</v>
       </c>
@@ -980,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>328.87233099999997</v>
       </c>
@@ -991,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>329.432615</v>
       </c>
@@ -1002,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>332.82548600000001</v>
       </c>
@@ -1013,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>343.705465</v>
       </c>
@@ -1023,8 +1195,11 @@
       <c r="C45" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>353.79546499999998</v>
       </c>
@@ -1034,8 +1209,11 @@
       <c r="C46" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>363.87546500000002</v>
       </c>
@@ -1045,8 +1223,11 @@
       <c r="C47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>370.19904200000002</v>
       </c>
@@ -1057,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>381.06546500000002</v>
       </c>
@@ -1067,8 +1248,11 @@
       <c r="C49" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>391.895465</v>
       </c>
@@ -1078,8 +1262,11 @@
       <c r="C50" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>398.11546499999997</v>
       </c>
@@ -1089,8 +1276,11 @@
       <c r="C51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>408.65546499999999</v>
       </c>
@@ -1100,8 +1290,11 @@
       <c r="C52" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>413.955465</v>
       </c>
@@ -1111,8 +1304,11 @@
       <c r="C53" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>426.50546500000002</v>
       </c>
@@ -1122,8 +1318,11 @@
       <c r="C54" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>436.60546499999998</v>
       </c>
@@ -1132,6 +1331,9 @@
       </c>
       <c r="C55" t="s">
         <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/метки.xlsx
+++ b/метки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\auto-get-audio-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BD8D65-CDBB-4A8D-91F1-0F1FF104607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBD64BC-5299-40C2-84AB-47EB44C01739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00BA540E-EA3A-4AAA-95EC-18AA6474DFA4}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <t>Извините, я Вас не расслышала. Пожалуйста, назовите оценку от 0 до 10.</t>
   </si>
   <si>
-    <t>Извините, я Вас не слышу. Пожалуйста, оцените, насколько вы удовлетворены тем, как прошла ваша покупка в М.Видео в целом? для оценки назовите цифру от 1 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
-  </si>
-  <si>
     <t>Извините, я Вас не расслышала. Пожалуйста, назовите цифру от 1 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Извините, я Вас не расслышала. Пожалуйста, назовите цифру от 1 до 5, где 5- «очень понравилось», а 1- «совершенно не понравилось».</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Пожалуйста, оцените, насколько вы удовлетворены тем, как прошла ваша покупка в М.Видео в целом? для оценки назовите цифру от 0 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24666397-9398-4206-97A6-0D50AF8E7686}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1224,7 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/метки.xlsx
+++ b/метки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\auto-get-audio-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBD64BC-5299-40C2-84AB-47EB44C01739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD371633-4AFD-44AA-A6FB-273B851A64B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00BA540E-EA3A-4AAA-95EC-18AA6474DFA4}"/>
   </bookViews>
@@ -168,27 +168,9 @@
     <t>template</t>
   </si>
   <si>
-    <t>Здравствуйте, Иван Это компания Мвидео. Мы проверяем качество обслуживания в магазине и этот телефон, указан, как контактный, может быть Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
-  </si>
-  <si>
-    <t>Здравствуйте, Вам звонили из компании Мвидео. К сожалению нам не удалось до Вас дозвониться. При необходимости наш сотрудник свяжется с Вами повторно. Спасибо, что перезвонили</t>
-  </si>
-  <si>
-    <t>Здравствуйте, Иван</t>
-  </si>
-  <si>
     <t>Здравствуйте</t>
   </si>
   <si>
-    <t>Это компания Мвидео. Мы проверяем качество обслуживания в магазине. Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
-  </si>
-  <si>
-    <t>Это компания Мвидео. Мы проверяем качество обслуживания в магазине и этот телефон указан, как контактный, может быть, Вы сможете ответить на несколько вопросов? Это займёт менее минуты.</t>
-  </si>
-  <si>
-    <t>Спасибо! 1 января 2011 года Вы приобрели в магазине Мвидео утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать М.Видео, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
-  </si>
-  <si>
     <t>Пожалуйста, назовите оценку от 0 до 10, где 10 означает «Точно посоветую», а 0- «Точно не посоветую».</t>
   </si>
   <si>
@@ -219,24 +201,9 @@
     <t>Мы работаем над улучшением качества обслуживания в магазинах. Ваши ответы помогут нам стать лучше для Вас.</t>
   </si>
   <si>
-    <t>Вы совершили покупку с использованием бонусной карты в магазине М.видео. И этот номер указан как контактный.</t>
-  </si>
-  <si>
     <t>Не переживайте. Гарантию Вы сможете получить по чеку. Если необходима печать, обратитесь в магазин к любому сотруднику, для проставления печати. Возьмите с собой чек и гарантийный талон</t>
   </si>
   <si>
-    <t>Извините, я Вас не слышу. Это компания М.видео, пожалуйста, ответьте на несколько вопросов.</t>
-  </si>
-  <si>
-    <t>Извините, я Вас не расслышала. Это компания М.видео, пожалуйста, ответьте на несколько вопросов.</t>
-  </si>
-  <si>
-    <t>Извините, я Вас не расслышала. Это компания М.видео, Вам удобно говорить?</t>
-  </si>
-  <si>
-    <t>Извините, я Вас не слышу. 1 января 2011 года Вы приобрели в магазине Мвидео утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать М.Видео, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
-  </si>
-  <si>
     <t>Извините, я Вас не расслышала. Пожалуйста, назовите оценку от 0 до 10, где 10 означает «Точно посоветую», а 0- «Точно не посоветую».</t>
   </si>
   <si>
@@ -261,7 +228,40 @@
     <t>Извините, я Вас не расслышала. Пожалуйста, назовите цифру от 1 до 5, где 5- «очень понравилось», а 1- «совершенно не понравилось».</t>
   </si>
   <si>
-    <t>Извините, я Вас не слышу. Пожалуйста, оцените, насколько вы удовлетворены тем, как прошла ваша покупка в М.Видео в целом? для оценки назовите цифру от 0 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
+    <t>Здравствуйте, {client_name}. Это компания {store_name_1}. Мы проверяем качество обслуживания в магазине и этот телефон, указан, как контактный, может быть Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
+  </si>
+  <si>
+    <t>Здравствуйте, Вам звонили из компании {store_name_1}. К сожалению нам не удалось до Вас дозвониться. При необходимости наш сотрудник свяжется с Вами повторно. Спасибо, что перезвонили</t>
+  </si>
+  <si>
+    <t>Здравствуйте, {client_name}</t>
+  </si>
+  <si>
+    <t>Вы совершили покупку с использованием бонусной карты в магазине {store_name_1}. И этот номер указан как контактный.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Это компания {store_name_1}, пожалуйста, ответьте на несколько вопросов.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Это компания {store_name_1}, пожалуйста, ответьте на несколько вопросов.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Это компания {store_name_1}, Вам удобно говорить?</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Пожалуйста, оцените, насколько вы удовлетворены тем, как прошла ваша покупка в {store_name_1} в целом? для оценки назовите цифру от 0 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. {date} Вы приобрели в магазине {store_name_1} утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
+  </si>
+  <si>
+    <t>Спасибо! {date} Вы приобрели в магазине {store_name_1} утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
+  </si>
+  <si>
+    <t>Это компания {store_name_1}. Мы проверяем качество обслуживания в магазине. Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
+  </si>
+  <si>
+    <t>Это компания {store_name_1}. Мы проверяем качество обслуживания в магазине и этот телефон указан, как контактный, может быть, Вы сможете ответить на несколько вопросов? Это займёт менее минуты.</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24666397-9398-4206-97A6-0D50AF8E7686}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/метки.xlsx
+++ b/метки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\auto-get-audio-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD371633-4AFD-44AA-A6FB-273B851A64B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03E56C-80D3-45C7-AD5A-180AFF238A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00BA540E-EA3A-4AAA-95EC-18AA6474DFA4}"/>
   </bookViews>
@@ -255,13 +255,13 @@
     <t>Извините, я Вас не слышу. {date} Вы приобрели в магазине {store_name_1} утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
   </si>
   <si>
-    <t>Спасибо! {date} Вы приобрели в магазине {store_name_1} утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
-  </si>
-  <si>
     <t>Это компания {store_name_1}. Мы проверяем качество обслуживания в магазине. Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
   </si>
   <si>
     <t>Это компания {store_name_1}. Мы проверяем качество обслуживания в магазине и этот телефон указан, как контактный, может быть, Вы сможете ответить на несколько вопросов? Это займёт менее минуты.</t>
+  </si>
+  <si>
+    <t>Спасибо! {date} Вы приобрели в магазине {store_name_1} {product_name}. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/метки.xlsx
+++ b/метки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\auto-get-audio-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03E56C-80D3-45C7-AD5A-180AFF238A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F3641D-F591-4CEC-BEC7-575D3EC7E692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00BA540E-EA3A-4AAA-95EC-18AA6474DFA4}"/>
   </bookViews>
@@ -252,9 +252,6 @@
     <t>Извините, я Вас не слышу. Пожалуйста, оцените, насколько вы удовлетворены тем, как прошла ваша покупка в {store_name_1} в целом? для оценки назовите цифру от 0 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
   </si>
   <si>
-    <t>Извините, я Вас не слышу. {date} Вы приобрели в магазине {store_name_1} утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
-  </si>
-  <si>
     <t>Это компания {store_name_1}. Мы проверяем качество обслуживания в магазине. Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Спасибо! {date} Вы приобрели в магазине {store_name_1} {product_name}. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. {date} Вы приобрели в магазине {store_name_1} {product_name}. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24666397-9398-4206-97A6-0D50AF8E7686}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">

--- a/метки.xlsx
+++ b/метки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\auto-get-audio-time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBD64BC-5299-40C2-84AB-47EB44C01739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F3641D-F591-4CEC-BEC7-575D3EC7E692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00BA540E-EA3A-4AAA-95EC-18AA6474DFA4}"/>
   </bookViews>
@@ -168,27 +168,9 @@
     <t>template</t>
   </si>
   <si>
-    <t>Здравствуйте, Иван Это компания Мвидео. Мы проверяем качество обслуживания в магазине и этот телефон, указан, как контактный, может быть Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
-  </si>
-  <si>
-    <t>Здравствуйте, Вам звонили из компании Мвидео. К сожалению нам не удалось до Вас дозвониться. При необходимости наш сотрудник свяжется с Вами повторно. Спасибо, что перезвонили</t>
-  </si>
-  <si>
-    <t>Здравствуйте, Иван</t>
-  </si>
-  <si>
     <t>Здравствуйте</t>
   </si>
   <si>
-    <t>Это компания Мвидео. Мы проверяем качество обслуживания в магазине. Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
-  </si>
-  <si>
-    <t>Это компания Мвидео. Мы проверяем качество обслуживания в магазине и этот телефон указан, как контактный, может быть, Вы сможете ответить на несколько вопросов? Это займёт менее минуты.</t>
-  </si>
-  <si>
-    <t>Спасибо! 1 января 2011 года Вы приобрели в магазине Мвидео утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать М.Видео, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
-  </si>
-  <si>
     <t>Пожалуйста, назовите оценку от 0 до 10, где 10 означает «Точно посоветую», а 0- «Точно не посоветую».</t>
   </si>
   <si>
@@ -219,24 +201,9 @@
     <t>Мы работаем над улучшением качества обслуживания в магазинах. Ваши ответы помогут нам стать лучше для Вас.</t>
   </si>
   <si>
-    <t>Вы совершили покупку с использованием бонусной карты в магазине М.видео. И этот номер указан как контактный.</t>
-  </si>
-  <si>
     <t>Не переживайте. Гарантию Вы сможете получить по чеку. Если необходима печать, обратитесь в магазин к любому сотруднику, для проставления печати. Возьмите с собой чек и гарантийный талон</t>
   </si>
   <si>
-    <t>Извините, я Вас не слышу. Это компания М.видео, пожалуйста, ответьте на несколько вопросов.</t>
-  </si>
-  <si>
-    <t>Извините, я Вас не расслышала. Это компания М.видео, пожалуйста, ответьте на несколько вопросов.</t>
-  </si>
-  <si>
-    <t>Извините, я Вас не расслышала. Это компания М.видео, Вам удобно говорить?</t>
-  </si>
-  <si>
-    <t>Извините, я Вас не слышу. 1 января 2011 года Вы приобрели в магазине Мвидео утюг. Оцените, пожалуйста, насколько Вы готовы рекомендовать М.Видео, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
-  </si>
-  <si>
     <t>Извините, я Вас не расслышала. Пожалуйста, назовите оценку от 0 до 10, где 10 означает «Точно посоветую», а 0- «Точно не посоветую».</t>
   </si>
   <si>
@@ -261,7 +228,40 @@
     <t>Извините, я Вас не расслышала. Пожалуйста, назовите цифру от 1 до 5, где 5- «очень понравилось», а 1- «совершенно не понравилось».</t>
   </si>
   <si>
-    <t>Извините, я Вас не слышу. Пожалуйста, оцените, насколько вы удовлетворены тем, как прошла ваша покупка в М.Видео в целом? для оценки назовите цифру от 0 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
+    <t>Здравствуйте, {client_name}. Это компания {store_name_1}. Мы проверяем качество обслуживания в магазине и этот телефон, указан, как контактный, может быть Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
+  </si>
+  <si>
+    <t>Здравствуйте, Вам звонили из компании {store_name_1}. К сожалению нам не удалось до Вас дозвониться. При необходимости наш сотрудник свяжется с Вами повторно. Спасибо, что перезвонили</t>
+  </si>
+  <si>
+    <t>Здравствуйте, {client_name}</t>
+  </si>
+  <si>
+    <t>Вы совершили покупку с использованием бонусной карты в магазине {store_name_1}. И этот номер указан как контактный.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Это компания {store_name_1}, пожалуйста, ответьте на несколько вопросов.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Это компания {store_name_1}, пожалуйста, ответьте на несколько вопросов.</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не расслышала. Это компания {store_name_1}, Вам удобно говорить?</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. Пожалуйста, оцените, насколько вы удовлетворены тем, как прошла ваша покупка в {store_name_1} в целом? для оценки назовите цифру от 0 до 5, где 5- «Полностью удовлетворен», а 1- «Совершенно не удовлетворен».</t>
+  </si>
+  <si>
+    <t>Это компания {store_name_1}. Мы проверяем качество обслуживания в магазине. Вы сможете ответить на несколько вопросов. Это займет менее минуты</t>
+  </si>
+  <si>
+    <t>Это компания {store_name_1}. Мы проверяем качество обслуживания в магазине и этот телефон указан, как контактный, может быть, Вы сможете ответить на несколько вопросов? Это займёт менее минуты.</t>
+  </si>
+  <si>
+    <t>Спасибо! {date} Вы приобрели в магазине {store_name_1} {product_name}. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
+  </si>
+  <si>
+    <t>Извините, я Вас не слышу. {date} Вы приобрели в магазине {store_name_1} {product_name}. Оцените, пожалуйста, насколько Вы готовы рекомендовать {store_name_2}, учитывая эту последнюю покупку, для оценки назовите цифру от 0 до 10, где 10- «Точно посоветую», а 0- «Точно не посоветую».</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24666397-9398-4206-97A6-0D50AF8E7686}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
